--- a/biology/Botanique/Glycine_arbre/Glycine_arbre.xlsx
+++ b/biology/Botanique/Glycine_arbre/Glycine_arbre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolusanthus speciosus
 La Glycine arbre (Bolusanthus speciosus) est une espèce d'arbre à feuilles caduques de la famille des Fabaceae et de la tribu des Sophoreae. Il est monotypique dans son genre.
 Il peut atteindre 12 m de haut et possède généralement plusieurs troncs. L'écorce est fibreuse. Les feuilles sont alternes, imparipennées et mesurent jusqu'à 30 cm de long. Les fleurs sont violettes. Le fruit est une gousse contenant 3 à 8 graines.
 Il est utilisé en marqueterie pour son bois de bonne qualité et en médecine traditionnelle pour les problèmes digestifs.
 Il craint le gel.
-On le trouve au Mozambique, Zambie, Zimbabwe, Botswana, dans le Natal et le  Transvaal en Afrique du Sud et au Swaziland[3].
+On le trouve au Mozambique, Zambie, Zimbabwe, Botswana, dans le Natal et le  Transvaal en Afrique du Sud et au Swaziland.
 </t>
         </is>
       </c>
